--- a/v0.7.1/StructureDefinition-PaymentNotice.xlsx
+++ b/v0.7.1/StructureDefinition-PaymentNotice.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="211">
   <si>
     <t>Property</t>
   </si>
@@ -244,6 +244,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>PaymentNotice request</t>
@@ -1163,10 +1167,10 @@
         <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s" s="2">
         <v>19</v>
@@ -1235,10 +1239,10 @@
         <v>74</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>74</v>
@@ -1252,10 +1256,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1266,7 +1270,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -1275,19 +1279,19 @@
         <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1337,13 +1341,13 @@
         <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -1369,10 +1373,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1383,7 +1387,7 @@
         <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>74</v>
@@ -1392,16 +1396,16 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1452,19 +1456,19 @@
         <v>74</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>74</v>
@@ -1484,10 +1488,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1498,28 +1502,28 @@
         <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1569,19 +1573,19 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>74</v>
@@ -1601,10 +1605,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1615,7 +1619,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -1627,16 +1631,16 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1662,13 +1666,13 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
@@ -1686,19 +1690,19 @@
         <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>74</v>
@@ -1718,21 +1722,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>74</v>
@@ -1744,16 +1748,16 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1803,25 +1807,25 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>74</v>
@@ -1835,14 +1839,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -1861,16 +1865,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1920,7 +1924,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -1938,7 +1942,7 @@
         <v>74</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>74</v>
@@ -1952,14 +1956,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -1978,16 +1982,16 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2037,7 +2041,7 @@
         <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2049,13 +2053,13 @@
         <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>74</v>
@@ -2069,14 +2073,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2089,25 +2093,25 @@
         <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2156,7 +2160,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2168,13 +2172,13 @@
         <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>74</v>
@@ -2188,10 +2192,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2199,10 +2203,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>74</v>
@@ -2214,17 +2218,17 @@
         <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>74</v>
@@ -2273,7 +2277,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2285,16 +2289,16 @@
         <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>74</v>
@@ -2305,10 +2309,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2316,34 +2320,34 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>74</v>
@@ -2368,13 +2372,13 @@
         <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>74</v>
@@ -2392,28 +2396,28 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>74</v>
@@ -2424,10 +2428,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2435,10 +2439,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>74</v>
@@ -2450,13 +2454,13 @@
         <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2507,28 +2511,28 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>74</v>
@@ -2539,10 +2543,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2550,10 +2554,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>74</v>
@@ -2565,13 +2569,13 @@
         <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2622,28 +2626,28 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>74</v>
@@ -2654,10 +2658,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2665,10 +2669,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>74</v>
@@ -2677,20 +2681,20 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>74</v>
@@ -2739,28 +2743,28 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>74</v>
@@ -2771,10 +2775,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2782,10 +2786,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
@@ -2797,13 +2801,13 @@
         <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2854,42 +2858,42 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2897,10 +2901,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -2909,20 +2913,20 @@
         <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>74</v>
@@ -2971,19 +2975,19 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>74</v>
@@ -3003,10 +3007,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3017,7 +3021,7 @@
         <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
@@ -3029,17 +3033,17 @@
         <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>74</v>
@@ -3088,19 +3092,19 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>74</v>
@@ -3120,10 +3124,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3134,7 +3138,7 @@
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>74</v>
@@ -3146,13 +3150,13 @@
         <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3203,19 +3207,19 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>74</v>
@@ -3235,10 +3239,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3246,10 +3250,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -3258,20 +3262,20 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>74</v>
@@ -3320,25 +3324,25 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>74</v>
@@ -3352,10 +3356,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3363,10 +3367,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
@@ -3375,20 +3379,20 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>74</v>
@@ -3437,19 +3441,19 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>74</v>
@@ -3469,10 +3473,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3483,7 +3487,7 @@
         <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
@@ -3495,19 +3499,19 @@
         <v>74</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>74</v>
@@ -3532,13 +3536,13 @@
         <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>74</v>
@@ -3556,25 +3560,25 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>74</v>
